--- a/municipal/სოციალური სტატისტიკა/სოციალური პაკეტის მიმღებთა რიცხოვნობა/კახეთი/დედოფლისწყარო.xlsx
+++ b/municipal/სოციალური სტატისტიკა/სოციალური პაკეტის მიმღებთა რიცხოვნობა/კახეთი/დედოფლისწყარო.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატ\სოციალური პაკეტის მიმღებთა რიცხოვნობა\კახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\სოციალური სტატისტიკა\სოციალური პაკეტის მიმღებთა რიცხოვნობა\კახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF731901-1635-4495-B019-A33673E2FD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="31815" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="დედოფლის წყარო" sheetId="1" r:id="rId1"/>
@@ -25,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>სოციალური პაკეტის მიმღებთა რიცხოვნობა დედოფლის წყაროს მუნიციპალიტეტში</t>
-  </si>
   <si>
     <t xml:space="preserve">(წლის ბოლოს, კაცი)  </t>
   </si>
@@ -76,11 +74,14 @@
       <t xml:space="preserve"> საქართველოს ოკუპირებული ტერიტორიებიდან დევნილთა, შრომის, ჯანმრთელობისა და სოციალური დაცვის სამინისტრო.</t>
     </r>
   </si>
+  <si>
+    <t>სოციალური პაკეტის მიმღებთა რიცხოვნობა დედოფლისწყაროს მუნიციპალიტეტში</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
@@ -221,30 +222,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -253,8 +253,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal_01_IANVARI" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_01_IANVARI" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,23 +735,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -787,9 +787,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7">
         <v>797</v>
@@ -823,34 +823,34 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
